--- a/biology/Médecine/Sur_l'Adamant/Sur_l'Adamant.xlsx
+++ b/biology/Médecine/Sur_l'Adamant/Sur_l'Adamant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur l'Adamant est un film documentaire franco-japonais réalisé par Nicolas Philibert et sorti en 2023. Il remporte l'Ours d'or à la 73e Berlinale[1],[2]. 
-Premier film d'un triptyque sur les unités intra-hospitalières du pôle Paris centre, le second film s'intitule Averroès &amp; Rosa Parks, tourné à Charenton, le troisième portera sur les visites à domicile effectuées chez les patients de l'Adamant[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'Adamant est un film documentaire franco-japonais réalisé par Nicolas Philibert et sorti en 2023. Il remporte l'Ours d'or à la 73e Berlinale,. 
+Premier film d'un triptyque sur les unités intra-hospitalières du pôle Paris centre, le second film s'intitule Averroès &amp; Rosa Parks, tourné à Charenton, le troisième portera sur les visites à domicile effectuées chez les patients de l'Adamant.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'Adamant, centre de jour situé quai de la Rapée dans le 12e arrondissement de Paris, on accueille sur une péniche des personnes souffrant de troubles psychiques. On y pratique la psychiatrie institutionnelle : L'équipe qui en est responsable  fait partie de celles qui tentent de résister le plus possible à la décadence et à la déshumanisation de la psychiatrie. Elle offre aux patients une routine quotidienne et les aide à reprendre pied dans la vie quotidienne avec des ateliers thérapeutiques et un accompagnement de rééducation psychosociale. 
-Ce film nous invite à embarquer à la rencontre des patients et des soignants qui inventent jour après jour leur quotidien. L'équipe Adamant est composée de psychiatres, de psychologues, d'infirmières, d'ergothérapeutes, d'éducateurs spécialisés, de psychomotriciens, de personnel hospitalier et d'art-thérapeutes. Patients et soignants sont filmés pendant sept mois[4].
+Ce film nous invite à embarquer à la rencontre des patients et des soignants qui inventent jour après jour leur quotidien. L'équipe Adamant est composée de psychiatres, de psychologues, d'infirmières, d'ergothérapeutes, d'éducateurs spécialisés, de psychomotriciens, de personnel hospitalier et d'art-thérapeutes. Patients et soignants sont filmés pendant sept mois.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Sur l'Adamant
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Avec</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sabine Berlière, Mamadi Barri, Walid Benziane, Romain Bernardin, Jean-Paul Hazan, Pauline Hertz, Frédéric Prieur, Sébastien Tournayre, Muriel Thourond (des patients et soignants)</t>
         </is>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,11 +638,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné propose une moyenne de 4,2⁄5, fondée sur 26 critiques de presse[5].
-Box-office
-Pour son premier jour d'exploitation en France, Sur l'Adamant a réalisé 7 422, dont 4 302 en avant-premières, pour un total de 234 séances proposées[7]. En comptant pour ce premier jour les avant-premières, le film se positionne en quatrième place du box-office des nouveautés pour sa journée de démarrage, derrière La plus belle pour aller danser (9 034) et devant La Conférence (7 385)[8].
-Au bout d’une première semaine d’exploitation dans les salles françaises, le long-métrage totalise 42 447 entrées, pour 1 545 séances proposées. Si l'on ne comptabilise pas les avant-premières, Sur l'Adamant se positionne en treizième place au box-office hebdomadaire, derrière Les Aventures de Ricky (41 010) et devant Les Complices (34 495)[9].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une moyenne de 4,2⁄5, fondée sur 26 critiques de presse.
 </t>
         </is>
       </c>
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sur_l%27Adamant</t>
+          <t>Sur_l'Adamant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,15 +670,92 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour son premier jour d'exploitation en France, Sur l'Adamant a réalisé 7 422, dont 4 302 en avant-premières, pour un total de 234 séances proposées. En comptant pour ce premier jour les avant-premières, le film se positionne en quatrième place du box-office des nouveautés pour sa journée de démarrage, derrière La plus belle pour aller danser (9 034) et devant La Conférence (7 385).
+Au bout d’une première semaine d’exploitation dans les salles françaises, le long-métrage totalise 42 447 entrées, pour 1 545 séances proposées. Si l'on ne comptabilise pas les avant-premières, Sur l'Adamant se positionne en treizième place au box-office hebdomadaire, derrière Les Aventures de Ricky (41 010) et devant Les Complices (34 495).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sur_l'Adamant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sur_l%27Adamant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompense
-Berlinale 2023 : Ours d'or[10]
-Nomination
-César 2024 : Meilleur film documentaire</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Berlinale 2023 : Ours d'or</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sur_l'Adamant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sur_l%27Adamant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>César 2024 : Meilleur film documentaire</t>
         </is>
       </c>
     </row>
